--- a/wc.xlsx
+++ b/wc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="68">
   <si>
     <t>Qatar</t>
   </si>
@@ -132,6 +132,102 @@
   </si>
   <si>
     <t>matchtime</t>
+  </si>
+  <si>
+    <t>Ecuador.jpg</t>
+  </si>
+  <si>
+    <t>Netherlands.jpg</t>
+  </si>
+  <si>
+    <t>Iran.jpg</t>
+  </si>
+  <si>
+    <t>Wales.jpg</t>
+  </si>
+  <si>
+    <t>Saudi_Arabia.jpg</t>
+  </si>
+  <si>
+    <t>Tunisia.jpg</t>
+  </si>
+  <si>
+    <t>Poland.jpg</t>
+  </si>
+  <si>
+    <t>Australia.jpg</t>
+  </si>
+  <si>
+    <t>Croatia.jpg</t>
+  </si>
+  <si>
+    <t>Japan.jpg</t>
+  </si>
+  <si>
+    <t>Costa_Rica.jpg</t>
+  </si>
+  <si>
+    <t>Canada.jpg</t>
+  </si>
+  <si>
+    <t>Cameroon.jpg</t>
+  </si>
+  <si>
+    <t>Korea_Republic.jpg</t>
+  </si>
+  <si>
+    <t>Ghana.jpg</t>
+  </si>
+  <si>
+    <t>Serbia.jpg</t>
+  </si>
+  <si>
+    <t>Senegal.jpg</t>
+  </si>
+  <si>
+    <t>United_States.jpg</t>
+  </si>
+  <si>
+    <t>Denmark.jpg</t>
+  </si>
+  <si>
+    <t>Mexico.jpg</t>
+  </si>
+  <si>
+    <t>Morocco.jpg</t>
+  </si>
+  <si>
+    <t>Germany.jpg</t>
+  </si>
+  <si>
+    <t>Switzerland.jpg</t>
+  </si>
+  <si>
+    <t>Uruguay.jpg</t>
+  </si>
+  <si>
+    <t>Qatar.jpg</t>
+  </si>
+  <si>
+    <t>England.jpg</t>
+  </si>
+  <si>
+    <t>France.jpg</t>
+  </si>
+  <si>
+    <t>Argentina.jpg</t>
+  </si>
+  <si>
+    <t>Belgium.jpg</t>
+  </si>
+  <si>
+    <t>Spain.jpg</t>
+  </si>
+  <si>
+    <t>Portugal.jpg</t>
+  </si>
+  <si>
+    <t>Brazil.jpg</t>
   </si>
 </sst>
 </file>
@@ -451,9 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -462,7 +560,7 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -475,8 +573,14 @@
       <c r="D1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44885</v>
       </c>
@@ -489,8 +593,14 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44886</v>
       </c>
@@ -503,8 +613,14 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44886</v>
       </c>
@@ -517,8 +633,14 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44886</v>
       </c>
@@ -531,8 +653,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44887</v>
       </c>
@@ -545,8 +673,14 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44887</v>
       </c>
@@ -559,8 +693,14 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44887</v>
       </c>
@@ -573,8 +713,14 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44887</v>
       </c>
@@ -587,8 +733,14 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44888</v>
       </c>
@@ -601,8 +753,14 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44888</v>
       </c>
@@ -615,8 +773,14 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44888</v>
       </c>
@@ -629,8 +793,14 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44888</v>
       </c>
@@ -643,8 +813,14 @@
       <c r="D13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44889</v>
       </c>
@@ -657,8 +833,14 @@
       <c r="D14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44889</v>
       </c>
@@ -671,8 +853,14 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44889</v>
       </c>
@@ -685,8 +873,14 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44889</v>
       </c>
@@ -699,8 +893,14 @@
       <c r="D17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44890</v>
       </c>
@@ -713,8 +913,14 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44890</v>
       </c>
@@ -727,8 +933,14 @@
       <c r="D19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>44890</v>
       </c>
@@ -741,8 +953,14 @@
       <c r="D20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>44890</v>
       </c>
@@ -755,8 +973,14 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44891</v>
       </c>
@@ -769,8 +993,14 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>44891</v>
       </c>
@@ -783,8 +1013,14 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>44891</v>
       </c>
@@ -797,8 +1033,14 @@
       <c r="D24" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>44891</v>
       </c>
@@ -811,8 +1053,14 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>44892</v>
       </c>
@@ -825,8 +1073,14 @@
       <c r="D26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>44892</v>
       </c>
@@ -839,8 +1093,14 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>44892</v>
       </c>
@@ -853,8 +1113,14 @@
       <c r="D28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>44892</v>
       </c>
@@ -867,8 +1133,14 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44893</v>
       </c>
@@ -881,8 +1153,14 @@
       <c r="D30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>44893</v>
       </c>
@@ -895,8 +1173,14 @@
       <c r="D31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>44893</v>
       </c>
@@ -908,6 +1192,12 @@
       </c>
       <c r="D32" t="s">
         <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
